--- a/fifty_one/measurements/updated_filtered_data_with_lengths_body-all.xlsx
+++ b/fifty_one/measurements/updated_filtered_data_with_lengths_body-all.xlsx
@@ -756,7 +756,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>67c5e246fb8374ec0ab47774</t>
+          <t>67c8a6c51acbd796e05577c8</t>
         </is>
       </c>
       <c r="W2" t="n">
@@ -919,7 +919,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>67c5e246fb8374ec0ab47772</t>
+          <t>67c8a6c51acbd796e05577c6</t>
         </is>
       </c>
       <c r="W3" t="n">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>67c5e246fb8374ec0ab47776</t>
+          <t>67c8a6c51acbd796e05577ca</t>
         </is>
       </c>
       <c r="W4" t="n">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>67c5e242fb8374ec0ab475c0</t>
+          <t>67c8a6c11acbd796e0557614</t>
         </is>
       </c>
       <c r="W5" t="n">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>67c5e242fb8374ec0ab475c4</t>
+          <t>67c8a6c11acbd796e0557618</t>
         </is>
       </c>
       <c r="W6" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>67c5e242fb8374ec0ab475c2</t>
+          <t>67c8a6c11acbd796e0557616</t>
         </is>
       </c>
       <c r="W7" t="n">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>67c5e242fb8374ec0ab475c6</t>
+          <t>67c8a6c11acbd796e055761a</t>
         </is>
       </c>
       <c r="W8" t="n">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab4788a</t>
+          <t>67c8a6c81acbd796e05578de</t>
         </is>
       </c>
       <c r="W9" t="n">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab4788c</t>
+          <t>67c8a6c81acbd796e05578e0</t>
         </is>
       </c>
       <c r="W10" t="n">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab4788e</t>
+          <t>67c8a6c81acbd796e05578e2</t>
         </is>
       </c>
       <c r="W11" t="n">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab479dc</t>
+          <t>67c8a6cc1acbd796e0557a30</t>
         </is>
       </c>
       <c r="W12" t="n">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab479da</t>
+          <t>67c8a6cc1acbd796e0557a2e</t>
         </is>
       </c>
       <c r="W13" t="n">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab47745</t>
+          <t>67c8a6c51acbd796e0557799</t>
         </is>
       </c>
       <c r="W14" t="n">
@@ -2875,7 +2875,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab47749</t>
+          <t>67c8a6c51acbd796e055779d</t>
         </is>
       </c>
       <c r="W15" t="n">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab47743</t>
+          <t>67c8a6c51acbd796e0557797</t>
         </is>
       </c>
       <c r="W16" t="n">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab47747</t>
+          <t>67c8a6c51acbd796e055779b</t>
         </is>
       </c>
       <c r="W17" t="n">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab478e4</t>
+          <t>67c8a6c91acbd796e0557938</t>
         </is>
       </c>
       <c r="W18" t="n">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab478e6</t>
+          <t>67c8a6c91acbd796e055793a</t>
         </is>
       </c>
       <c r="W19" t="n">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>67c5e243fb8374ec0ab47642</t>
+          <t>67c8a6c21acbd796e0557696</t>
         </is>
       </c>
       <c r="W20" t="n">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>67c5e243fb8374ec0ab47640</t>
+          <t>67c8a6c21acbd796e0557694</t>
         </is>
       </c>
       <c r="W21" t="n">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>67c5e243fb8374ec0ab4763e</t>
+          <t>67c8a6c21acbd796e0557692</t>
         </is>
       </c>
       <c r="W22" t="n">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>67c5e241fb8374ec0ab47570</t>
+          <t>67c8a6bf1acbd796e05575c4</t>
         </is>
       </c>
       <c r="W23" t="n">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>67c5e241fb8374ec0ab47572</t>
+          <t>67c8a6bf1acbd796e05575c6</t>
         </is>
       </c>
       <c r="W24" t="n">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>67c5e241fb8374ec0ab47574</t>
+          <t>67c8a6bf1acbd796e05575c8</t>
         </is>
       </c>
       <c r="W25" t="n">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab47716</t>
+          <t>67c8a6c51acbd796e055776a</t>
         </is>
       </c>
       <c r="W26" t="n">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab47714</t>
+          <t>67c8a6c51acbd796e0557768</t>
         </is>
       </c>
       <c r="W27" t="n">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab4771a</t>
+          <t>67c8a6c51acbd796e055776e</t>
         </is>
       </c>
       <c r="W28" t="n">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>67c5e247fb8374ec0ab477d0</t>
+          <t>67c8a6c61acbd796e0557824</t>
         </is>
       </c>
       <c r="W29" t="n">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>67c5e247fb8374ec0ab477d4</t>
+          <t>67c8a6c61acbd796e0557828</t>
         </is>
       </c>
       <c r="W30" t="n">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>67c5e247fb8374ec0ab477da</t>
+          <t>67c8a6c61acbd796e055782e</t>
         </is>
       </c>
       <c r="W31" t="n">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>67c5e247fb8374ec0ab477d2</t>
+          <t>67c8a6c61acbd796e0557826</t>
         </is>
       </c>
       <c r="W32" t="n">
@@ -5809,7 +5809,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>67c5e247fb8374ec0ab477d6</t>
+          <t>67c8a6c61acbd796e055782a</t>
         </is>
       </c>
       <c r="W33" t="n">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>67c5e242fb8374ec0ab47600</t>
+          <t>67c8a6c11acbd796e0557654</t>
         </is>
       </c>
       <c r="W34" t="n">
@@ -6135,7 +6135,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>67c5e242fb8374ec0ab47602</t>
+          <t>67c8a6c11acbd796e0557656</t>
         </is>
       </c>
       <c r="W35" t="n">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>67c5e242fb8374ec0ab47602</t>
+          <t>67c8a6c11acbd796e0557656</t>
         </is>
       </c>
       <c r="W36" t="n">
@@ -6461,7 +6461,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>67c5e246fb8374ec0ab4779d</t>
+          <t>67c8a6c61acbd796e05577f1</t>
         </is>
       </c>
       <c r="W37" t="n">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>67c5e246fb8374ec0ab47799</t>
+          <t>67c8a6c61acbd796e05577ed</t>
         </is>
       </c>
       <c r="W38" t="n">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>67c5e246fb8374ec0ab47795</t>
+          <t>67c8a6c61acbd796e05577e9</t>
         </is>
       </c>
       <c r="W39" t="n">
@@ -6950,7 +6950,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>67c5e246fb8374ec0ab47797</t>
+          <t>67c8a6c61acbd796e05577eb</t>
         </is>
       </c>
       <c r="W40" t="n">
@@ -7113,7 +7113,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>67c5e246fb8374ec0ab4779b</t>
+          <t>67c8a6c61acbd796e05577ef</t>
         </is>
       </c>
       <c r="W41" t="n">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab478af</t>
+          <t>67c8a6c81acbd796e0557903</t>
         </is>
       </c>
       <c r="W42" t="n">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab478ab</t>
+          <t>67c8a6c81acbd796e05578ff</t>
         </is>
       </c>
       <c r="W43" t="n">
@@ -7602,7 +7602,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab478ad</t>
+          <t>67c8a6c81acbd796e0557901</t>
         </is>
       </c>
       <c r="W44" t="n">
@@ -7765,7 +7765,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab478a9</t>
+          <t>67c8a6c81acbd796e05578fd</t>
         </is>
       </c>
       <c r="W45" t="n">
@@ -7928,7 +7928,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>67c5e247fb8374ec0ab47818</t>
+          <t>67c8a6c71acbd796e055786c</t>
         </is>
       </c>
       <c r="W46" t="n">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>67c5e247fb8374ec0ab4781a</t>
+          <t>67c8a6c71acbd796e055786e</t>
         </is>
       </c>
       <c r="W47" t="n">
@@ -8254,7 +8254,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>67c5e247fb8374ec0ab4781e</t>
+          <t>67c8a6c71acbd796e0557872</t>
         </is>
       </c>
       <c r="W48" t="n">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>67c5e247fb8374ec0ab4781c</t>
+          <t>67c8a6c71acbd796e0557870</t>
         </is>
       </c>
       <c r="W49" t="n">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>67c5e242fb8374ec0ab475eb</t>
+          <t>67c8a6c11acbd796e055763f</t>
         </is>
       </c>
       <c r="W50" t="n">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>67c5e242fb8374ec0ab475ed</t>
+          <t>67c8a6c11acbd796e0557641</t>
         </is>
       </c>
       <c r="W51" t="n">
@@ -8906,7 +8906,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>67c5e24cfb8374ec0ab479ef</t>
+          <t>67c8a6cd1acbd796e0557a43</t>
         </is>
       </c>
       <c r="W52" t="n">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>67c5e24cfb8374ec0ab479f1</t>
+          <t>67c8a6cd1acbd796e0557a45</t>
         </is>
       </c>
       <c r="W53" t="n">
@@ -9232,7 +9232,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>67c5e24cfb8374ec0ab479f3</t>
+          <t>67c8a6cd1acbd796e0557a47</t>
         </is>
       </c>
       <c r="W54" t="n">
@@ -9395,7 +9395,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>67c5e248fb8374ec0ab4785e</t>
+          <t>67c8a6c81acbd796e05578b2</t>
         </is>
       </c>
       <c r="W55" t="n">
@@ -9558,7 +9558,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>67c5e248fb8374ec0ab4785a</t>
+          <t>67c8a6c81acbd796e05578ae</t>
         </is>
       </c>
       <c r="W56" t="n">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>67c5e248fb8374ec0ab47858</t>
+          <t>67c8a6c81acbd796e05578ac</t>
         </is>
       </c>
       <c r="W57" t="n">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>67c5e24afb8374ec0ab4793a</t>
+          <t>67c8a6ca1acbd796e055798e</t>
         </is>
       </c>
       <c r="W58" t="n">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>67c5e24afb8374ec0ab47938</t>
+          <t>67c8a6ca1acbd796e055798c</t>
         </is>
       </c>
       <c r="W59" t="n">
@@ -10210,7 +10210,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>67c5e24afb8374ec0ab4793c</t>
+          <t>67c8a6ca1acbd796e0557990</t>
         </is>
       </c>
       <c r="W60" t="n">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>67c5e24afb8374ec0ab4793e</t>
+          <t>67c8a6ca1acbd796e0557992</t>
         </is>
       </c>
       <c r="W61" t="n">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>67c5e244fb8374ec0ab4768c</t>
+          <t>67c8a6c31acbd796e05576e0</t>
         </is>
       </c>
       <c r="W62" t="n">
@@ -10699,7 +10699,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>67c5e244fb8374ec0ab4768e</t>
+          <t>67c8a6c31acbd796e05576e2</t>
         </is>
       </c>
       <c r="W63" t="n">
@@ -10862,7 +10862,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>67c5e244fb8374ec0ab4768a</t>
+          <t>67c8a6c31acbd796e05576de</t>
         </is>
       </c>
       <c r="W64" t="n">
@@ -11025,7 +11025,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>67c5e244fb8374ec0ab476c6</t>
+          <t>67c8a6c41acbd796e055771a</t>
         </is>
       </c>
       <c r="W65" t="n">
@@ -11188,7 +11188,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>67c5e244fb8374ec0ab476ca</t>
+          <t>67c8a6c41acbd796e055771e</t>
         </is>
       </c>
       <c r="W66" t="n">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>67c5e244fb8374ec0ab476af</t>
+          <t>67c8a6c41acbd796e0557703</t>
         </is>
       </c>
       <c r="W67" t="n">
@@ -11514,7 +11514,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>67c5e244fb8374ec0ab476ad</t>
+          <t>67c8a6c41acbd796e0557701</t>
         </is>
       </c>
       <c r="W68" t="n">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab47973</t>
+          <t>67c8a6cb1acbd796e05579c7</t>
         </is>
       </c>
       <c r="W69" t="n">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab4796f</t>
+          <t>67c8a6cb1acbd796e05579c3</t>
         </is>
       </c>
       <c r="W70" t="n">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab4796b</t>
+          <t>67c8a6cb1acbd796e05579bf</t>
         </is>
       </c>
       <c r="W71" t="n">
@@ -12166,7 +12166,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab476e7</t>
+          <t>67c8a6c41acbd796e055773b</t>
         </is>
       </c>
       <c r="W72" t="n">
@@ -12329,7 +12329,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab476e3</t>
+          <t>67c8a6c41acbd796e0557737</t>
         </is>
       </c>
       <c r="W73" t="n">
@@ -12492,7 +12492,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab476e9</t>
+          <t>67c8a6c41acbd796e055773d</t>
         </is>
       </c>
       <c r="W74" t="n">
@@ -12655,7 +12655,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>67c5e245fb8374ec0ab476e5</t>
+          <t>67c8a6c41acbd796e0557739</t>
         </is>
       </c>
       <c r="W75" t="n">
@@ -12818,7 +12818,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a63</t>
+          <t>67c8a6ce1acbd796e0557ab7</t>
         </is>
       </c>
       <c r="W76" t="n">
@@ -12981,7 +12981,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a67</t>
+          <t>67c8a6ce1acbd796e0557abb</t>
         </is>
       </c>
       <c r="W77" t="n">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a65</t>
+          <t>67c8a6ce1acbd796e0557ab9</t>
         </is>
       </c>
       <c r="W78" t="n">
@@ -13307,7 +13307,7 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a69</t>
+          <t>67c8a6ce1acbd796e0557abd</t>
         </is>
       </c>
       <c r="W79" t="n">
@@ -13468,7 +13468,7 @@
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>67c5e243fb8374ec0ab47672</t>
+          <t>67c8a6c31acbd796e05576c6</t>
         </is>
       </c>
       <c r="W80" t="n">
@@ -13631,7 +13631,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a90</t>
+          <t>67c8a6ce1acbd796e0557ae4</t>
         </is>
       </c>
       <c r="W81" t="n">
@@ -13794,7 +13794,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a8e</t>
+          <t>67c8a6ce1acbd796e0557ae2</t>
         </is>
       </c>
       <c r="W82" t="n">
@@ -13957,7 +13957,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a92</t>
+          <t>67c8a6ce1acbd796e0557ae6</t>
         </is>
       </c>
       <c r="W83" t="n">
@@ -14120,7 +14120,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab478fd</t>
+          <t>67c8a6c91acbd796e0557951</t>
         </is>
       </c>
       <c r="W84" t="n">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>67c5e249fb8374ec0ab478ff</t>
+          <t>67c8a6c91acbd796e0557953</t>
         </is>
       </c>
       <c r="W85" t="n">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>67c5e24afb8374ec0ab47916</t>
+          <t>67c8a6ca1acbd796e055796a</t>
         </is>
       </c>
       <c r="W86" t="n">
@@ -14609,7 +14609,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>67c5e24cfb8374ec0ab47a0e</t>
+          <t>67c8a6cd1acbd796e0557a62</t>
         </is>
       </c>
       <c r="W87" t="n">
@@ -14772,7 +14772,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>67c5e24afb8374ec0ab4792d</t>
+          <t>67c8a6ca1acbd796e0557981</t>
         </is>
       </c>
       <c r="W88" t="n">
@@ -14935,7 +14935,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>67c5e243fb8374ec0ab47625</t>
+          <t>67c8a6c21acbd796e0557679</t>
         </is>
       </c>
       <c r="W89" t="n">
@@ -15098,7 +15098,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>67c5e243fb8374ec0ab47623</t>
+          <t>67c8a6c21acbd796e0557677</t>
         </is>
       </c>
       <c r="W90" t="n">
@@ -15261,7 +15261,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>67c5e241fb8374ec0ab47597</t>
+          <t>67c8a6c01acbd796e05575eb</t>
         </is>
       </c>
       <c r="W91" t="n">
@@ -15424,7 +15424,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>67c5e241fb8374ec0ab47599</t>
+          <t>67c8a6c01acbd796e05575ed</t>
         </is>
       </c>
       <c r="W92" t="n">
@@ -15587,7 +15587,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>67c5e241fb8374ec0ab47593</t>
+          <t>67c8a6c01acbd796e05575e7</t>
         </is>
       </c>
       <c r="W93" t="n">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>67c5e241fb8374ec0ab47595</t>
+          <t>67c8a6c01acbd796e05575e9</t>
         </is>
       </c>
       <c r="W94" t="n">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab479ab</t>
+          <t>67c8a6cb1acbd796e05579ff</t>
         </is>
       </c>
       <c r="W95" t="n">
@@ -16076,7 +16076,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab479ad</t>
+          <t>67c8a6cb1acbd796e0557a01</t>
         </is>
       </c>
       <c r="W96" t="n">
@@ -16239,7 +16239,7 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab479b1</t>
+          <t>67c8a6cb1acbd796e0557a05</t>
         </is>
       </c>
       <c r="W97" t="n">
@@ -16402,7 +16402,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab479af</t>
+          <t>67c8a6cb1acbd796e0557a03</t>
         </is>
       </c>
       <c r="W98" t="n">
@@ -16565,7 +16565,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab47998</t>
+          <t>67c8a6cb1acbd796e05579ec</t>
         </is>
       </c>
       <c r="W99" t="n">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>67c5e24bfb8374ec0ab47996</t>
+          <t>67c8a6cb1acbd796e05579ea</t>
         </is>
       </c>
       <c r="W100" t="n">
@@ -16891,7 +16891,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>67c5e248fb8374ec0ab47879</t>
+          <t>67c8a6c81acbd796e05578cd</t>
         </is>
       </c>
       <c r="W101" t="n">
@@ -17054,7 +17054,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a2e</t>
+          <t>67c8a6ce1acbd796e0557a82</t>
         </is>
       </c>
       <c r="W102" t="n">
@@ -17217,7 +17217,7 @@
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a36</t>
+          <t>67c8a6ce1acbd796e0557a8a</t>
         </is>
       </c>
       <c r="W103" t="n">
@@ -17380,7 +17380,7 @@
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a36</t>
+          <t>67c8a6ce1acbd796e0557a8a</t>
         </is>
       </c>
       <c r="W104" t="n">
@@ -17543,7 +17543,7 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a30</t>
+          <t>67c8a6ce1acbd796e0557a84</t>
         </is>
       </c>
       <c r="W105" t="n">
@@ -17706,7 +17706,7 @@
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>67c5e24dfb8374ec0ab47a32</t>
+          <t>67c8a6ce1acbd796e0557a86</t>
         </is>
       </c>
       <c r="W106" t="n">
@@ -17869,7 +17869,7 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>67c5e24cfb8374ec0ab47a1d</t>
+          <t>67c8a6cd1acbd796e0557a71</t>
         </is>
       </c>
       <c r="W107" t="n">
@@ -18032,7 +18032,7 @@
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>67c5e24efb8374ec0ab47abb</t>
+          <t>67c8a6cf1acbd796e0557b0f</t>
         </is>
       </c>
       <c r="W108" t="n">
@@ -18195,7 +18195,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>67c5e24efb8374ec0ab47ab9</t>
+          <t>67c8a6cf1acbd796e0557b0d</t>
         </is>
       </c>
       <c r="W109" t="n">
@@ -18348,7 +18348,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S110" t="n">
-        <v>103.493629008867</v>
+        <v>132.172586445059</v>
       </c>
       <c r="T110" t="n">
         <v>864.3610998661266</v>
@@ -18358,17 +18358,17 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>67c5e24ffb8374ec0ab47afd</t>
+          <t>67c8a6d11acbd796e0557b51</t>
         </is>
       </c>
       <c r="W110" t="n">
-        <v>101.2527632346806</v>
+        <v>129.3107578659776</v>
       </c>
       <c r="X110" t="n">
-        <v>415</v>
+        <v>530</v>
       </c>
       <c r="Y110" t="n">
-        <v>101.7677320771105</v>
+        <v>129.9684289177556</v>
       </c>
       <c r="Z110" t="n">
         <v>818.0424386</v>
@@ -18388,58 +18388,58 @@
         <v>845.6405722144219</v>
       </c>
       <c r="AE110" t="n">
-        <v>4.686237318032786</v>
+        <v>21.72601017215088</v>
       </c>
       <c r="AF110" t="n">
-        <v>18.94591479772608</v>
+        <v>3.514855800494389</v>
       </c>
       <c r="AG110" t="n">
-        <v>8.079885945293769</v>
+        <v>17.39195288914287</v>
       </c>
       <c r="AH110" t="n">
-        <v>4.978236765319409</v>
+        <v>23.0797578659776</v>
       </c>
       <c r="AI110" t="n">
-        <v>23.66723676531942</v>
+        <v>4.390757865977591</v>
       </c>
       <c r="AJ110" t="n">
-        <v>8.900236765319448</v>
+        <v>19.15775786597756</v>
       </c>
       <c r="AK110" t="n">
-        <v>4.4632679228895</v>
+        <v>23.73742891775558</v>
       </c>
       <c r="AL110" t="n">
-        <v>23.15226792288951</v>
+        <v>5.048428917755572</v>
       </c>
       <c r="AM110" t="n">
-        <v>8.38526792288954</v>
+        <v>19.81542891775554</v>
       </c>
       <c r="AN110" t="n">
-        <v>4.201474073377357</v>
+        <v>22.34510540026506</v>
       </c>
       <c r="AO110" t="n">
-        <v>18.53367589088177</v>
+        <v>4.041329585138946</v>
       </c>
       <c r="AP110" t="n">
-        <v>7.612382706680288</v>
+        <v>17.98900521797457</v>
       </c>
       <c r="AQ110" t="n">
-        <v>2.737370991133005</v>
+        <v>25.94158644505904</v>
       </c>
       <c r="AR110" t="n">
-        <v>21.42637099113301</v>
+        <v>7.252586445059038</v>
       </c>
       <c r="AS110" t="n">
-        <v>6.659370991133045</v>
+        <v>22.01958644505901</v>
       </c>
       <c r="AT110" t="n">
-        <v>2.576809962377277</v>
+        <v>24.41997763840973</v>
       </c>
       <c r="AU110" t="n">
-        <v>17.15207412034343</v>
+        <v>5.805784858356578</v>
       </c>
       <c r="AV110" t="n">
-        <v>6.045564797266569</v>
+        <v>19.99000158421377</v>
       </c>
       <c r="AW110" t="n">
         <v>0.9983590128342925</v>
@@ -18511,7 +18511,7 @@
         <v>1.230960202536279</v>
       </c>
       <c r="S111" t="n">
-        <v>115.117117444246</v>
+        <v>147.0170415553021</v>
       </c>
       <c r="T111" t="n">
         <v>975.3990845285531</v>
@@ -18521,17 +18521,17 @@
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>67c5e24ffb8374ec0ab47b01</t>
+          <t>67c8a6d11acbd796e0557b55</t>
         </is>
       </c>
       <c r="W111" t="n">
-        <v>110.8633376124099</v>
+        <v>141.5845034568126</v>
       </c>
       <c r="X111" t="n">
-        <v>415</v>
+        <v>530</v>
       </c>
       <c r="Y111" t="n">
-        <v>113.0934969352848</v>
+        <v>144.4326587366288</v>
       </c>
       <c r="Z111" t="n">
         <v>892.2377196</v>
@@ -18551,58 +18551,58 @@
         <v>939.7521936483706</v>
       </c>
       <c r="AE111" t="n">
-        <v>4.317627593591001</v>
+        <v>22.19676475999223</v>
       </c>
       <c r="AF111" t="n">
-        <v>20.34993130700214</v>
+        <v>1.721774475394869</v>
       </c>
       <c r="AG111" t="n">
-        <v>12.20484053659884</v>
+        <v>12.12393859181355</v>
       </c>
       <c r="AH111" t="n">
-        <v>5.002662387590149</v>
+        <v>25.7185034568126</v>
       </c>
       <c r="AI111" t="n">
-        <v>28.32466238759014</v>
+        <v>2.39650345681261</v>
       </c>
       <c r="AJ111" t="n">
-        <v>15.41166238759018</v>
+        <v>15.30950345681256</v>
       </c>
       <c r="AK111" t="n">
-        <v>2.772503064715153</v>
+        <v>28.56665873662884</v>
       </c>
       <c r="AL111" t="n">
-        <v>26.09450306471514</v>
+        <v>5.24465873662885</v>
       </c>
       <c r="AM111" t="n">
-        <v>13.18150306471519</v>
+        <v>18.1576587366288</v>
       </c>
       <c r="AN111" t="n">
-        <v>2.392853006675947</v>
+        <v>24.65491061798011</v>
       </c>
       <c r="AO111" t="n">
-        <v>18.74766723044741</v>
+        <v>3.768039440633424</v>
       </c>
       <c r="AP111" t="n">
-        <v>10.43872743196609</v>
+        <v>14.37945653266981</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.748882555753994</v>
+        <v>31.15104155530214</v>
       </c>
       <c r="AR111" t="n">
-        <v>24.07088255575398</v>
+        <v>7.829041555302155</v>
       </c>
       <c r="AS111" t="n">
-        <v>11.15788255575403</v>
+        <v>20.74204155530211</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.646335038539342</v>
+        <v>26.885403444757</v>
       </c>
       <c r="AU111" t="n">
-        <v>17.29379153070235</v>
+        <v>5.624796358380144</v>
       </c>
       <c r="AV111" t="n">
-        <v>8.836177038807385</v>
+        <v>16.42608715525805</v>
       </c>
       <c r="AW111" t="n">
         <v>0.9907407389652545</v>
@@ -18781,7 +18781,7 @@
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>67c5e253fb8374ec0ab47ba0</t>
+          <t>67c8a6d51acbd796e0557bf4</t>
         </is>
       </c>
       <c r="W113" t="n">
@@ -19041,7 +19041,7 @@
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>67c5e24ffb8374ec0ab47b16</t>
+          <t>67c8a6d11acbd796e0557b6a</t>
         </is>
       </c>
       <c r="W115" t="n">
@@ -19204,7 +19204,7 @@
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>67c5e250fb8374ec0ab47b5a</t>
+          <t>67c8a6d31acbd796e0557bae</t>
         </is>
       </c>
       <c r="W116" t="n">
@@ -19755,7 +19755,7 @@
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>67c5e251fb8374ec0ab47b77</t>
+          <t>67c8a6d41acbd796e0557bcb</t>
         </is>
       </c>
       <c r="W121" t="n">
@@ -19918,7 +19918,7 @@
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>67c5e251fb8374ec0ab47b65</t>
+          <t>67c8a6d31acbd796e0557bb9</t>
         </is>
       </c>
       <c r="W122" t="n">
@@ -20857,7 +20857,7 @@
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>67c5e24efb8374ec0ab47ae8</t>
+          <t>67c8a6d01acbd796e0557b3c</t>
         </is>
       </c>
       <c r="W131" t="n">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>67c5e252fb8374ec0ab47b93</t>
+          <t>67c8a6d51acbd796e0557be7</t>
         </is>
       </c>
       <c r="W132" t="n">
@@ -21183,7 +21183,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>67c5e250fb8374ec0ab47b42</t>
+          <t>67c8a6d21acbd796e0557b96</t>
         </is>
       </c>
       <c r="W133" t="n">
